--- a/Code/Results/Cases/Case_5_65/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_65/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.07130447330971</v>
+        <v>13.7015983672966</v>
       </c>
       <c r="C2">
-        <v>12.56470578149049</v>
+        <v>7.027492222474772</v>
       </c>
       <c r="D2">
-        <v>6.074862883251168</v>
+        <v>9.216955118608999</v>
       </c>
       <c r="E2">
-        <v>8.505015554273802</v>
+        <v>13.49660647338201</v>
       </c>
       <c r="F2">
-        <v>23.29134794235463</v>
+        <v>31.84037344995379</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.690651544835626</v>
+        <v>9.917056146039144</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.11574743411661</v>
+        <v>16.5053817125972</v>
       </c>
       <c r="N2">
-        <v>11.85781558461069</v>
+        <v>17.78526280807522</v>
       </c>
       <c r="O2">
-        <v>16.48965464484086</v>
+        <v>23.84670232787552</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.78798844665726</v>
+        <v>13.2392116101996</v>
       </c>
       <c r="C3">
-        <v>11.78477353729777</v>
+        <v>6.614749596745622</v>
       </c>
       <c r="D3">
-        <v>5.915655489924059</v>
+        <v>9.207031294696167</v>
       </c>
       <c r="E3">
-        <v>8.391822671343606</v>
+        <v>13.51183840921222</v>
       </c>
       <c r="F3">
-        <v>22.72681536191163</v>
+        <v>31.85815364066598</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.72060118834182</v>
+        <v>9.941423444315424</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.39427341785905</v>
+        <v>16.3710400245124</v>
       </c>
       <c r="N3">
-        <v>12.03537823669419</v>
+        <v>17.84211868669211</v>
       </c>
       <c r="O3">
-        <v>16.22701727119526</v>
+        <v>23.89158391864082</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.95357476135541</v>
+        <v>12.9489857401828</v>
       </c>
       <c r="C4">
-        <v>11.27905920987465</v>
+        <v>6.347681334806301</v>
       </c>
       <c r="D4">
-        <v>5.818024135437514</v>
+        <v>9.202121101417852</v>
       </c>
       <c r="E4">
-        <v>8.326288391738435</v>
+        <v>13.52329630282917</v>
       </c>
       <c r="F4">
-        <v>22.39590424749456</v>
+        <v>31.87758136147763</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.74143776657903</v>
+        <v>9.957505084942829</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -530,13 +530,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.93597334094531</v>
+        <v>16.29064116373498</v>
       </c>
       <c r="N4">
-        <v>12.1476661847646</v>
+        <v>17.87886909178367</v>
       </c>
       <c r="O4">
-        <v>16.08037576553468</v>
+        <v>23.92519417823694</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.60179290715076</v>
+        <v>12.82931357957181</v>
       </c>
       <c r="C5">
-        <v>11.06624427535547</v>
+        <v>6.235484225123206</v>
       </c>
       <c r="D5">
-        <v>5.778320463030308</v>
+        <v>9.20041941785721</v>
       </c>
       <c r="E5">
-        <v>8.300584775875592</v>
+        <v>13.52849510792066</v>
       </c>
       <c r="F5">
-        <v>22.26509383606105</v>
+        <v>31.88763557887668</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.75052885683176</v>
+        <v>9.964340431528107</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.74557514457388</v>
+        <v>16.25843208630279</v>
       </c>
       <c r="N5">
-        <v>12.19425082828049</v>
+        <v>17.89430915444411</v>
       </c>
       <c r="O5">
-        <v>16.02424589945225</v>
+        <v>23.94040852223315</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.54266800350286</v>
+        <v>12.80936313616823</v>
       </c>
       <c r="C6">
-        <v>11.03050060364608</v>
+        <v>6.21665299767611</v>
       </c>
       <c r="D6">
-        <v>5.771734176895241</v>
+        <v>9.200154978009124</v>
       </c>
       <c r="E6">
-        <v>8.296377329666601</v>
+        <v>13.52939035696503</v>
       </c>
       <c r="F6">
-        <v>22.24361908155079</v>
+        <v>31.88943405396411</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.752074228366626</v>
+        <v>9.965492473678365</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -612,13 +612,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.71374699004586</v>
+        <v>16.2531180949978</v>
       </c>
       <c r="N6">
-        <v>12.20203626162051</v>
+        <v>17.89690102127192</v>
       </c>
       <c r="O6">
-        <v>16.01514302235579</v>
+        <v>23.9430263989741</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.94887818220959</v>
+        <v>12.94737722169324</v>
       </c>
       <c r="C7">
-        <v>11.2762163426351</v>
+        <v>6.346181730231794</v>
       </c>
       <c r="D7">
-        <v>5.817488277230528</v>
+        <v>9.202096937991827</v>
       </c>
       <c r="E7">
-        <v>8.32593768159912</v>
+        <v>13.52336427113694</v>
       </c>
       <c r="F7">
-        <v>22.39412363461082</v>
+        <v>31.87770830710362</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.741557962572237</v>
+        <v>9.957596126811834</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -653,13 +653,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.93341998083547</v>
+        <v>16.29020449942117</v>
       </c>
       <c r="N7">
-        <v>12.14829108757098</v>
+        <v>17.87907544176335</v>
       </c>
       <c r="O7">
-        <v>16.07960416310937</v>
+        <v>23.9253932241733</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.63841515656999</v>
+        <v>13.54358551243872</v>
       </c>
       <c r="C8">
-        <v>12.30135943506213</v>
+        <v>6.888045114935079</v>
       </c>
       <c r="D8">
-        <v>6.019972656486583</v>
+        <v>9.213288936087732</v>
       </c>
       <c r="E8">
-        <v>8.465166825821246</v>
+        <v>13.50142160930455</v>
       </c>
       <c r="F8">
-        <v>23.09349125981615</v>
+        <v>31.84473635418416</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.700460740698015</v>
+        <v>9.925225716085166</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -694,13 +694,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.87027732896678</v>
+        <v>16.45864523580779</v>
       </c>
       <c r="N8">
-        <v>11.91836507020836</v>
+        <v>17.80448536051644</v>
       </c>
       <c r="O8">
-        <v>16.39603788525491</v>
+        <v>23.86091890497133</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.58629938513605</v>
+        <v>14.65525163213465</v>
       </c>
       <c r="C9">
-        <v>14.09871606102514</v>
+        <v>7.879333994089476</v>
       </c>
       <c r="D9">
-        <v>6.415904739572747</v>
+        <v>9.244541137733558</v>
       </c>
       <c r="E9">
-        <v>8.769378075881788</v>
+        <v>13.47508629247726</v>
       </c>
       <c r="F9">
-        <v>24.58539498999011</v>
+        <v>31.84768058907767</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.640017306964041</v>
+        <v>9.870620505705677</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -735,13 +735,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.63867829376417</v>
+        <v>16.80419742723289</v>
       </c>
       <c r="N9">
-        <v>11.49314534332911</v>
+        <v>17.67276802438999</v>
       </c>
       <c r="O9">
-        <v>17.13413010495684</v>
+        <v>23.78267576154558</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.53412191159584</v>
+        <v>15.42820276905078</v>
       </c>
       <c r="C10">
-        <v>15.29009880247939</v>
+        <v>8.539740062976282</v>
       </c>
       <c r="D10">
-        <v>6.703502043784892</v>
+        <v>9.273056944259714</v>
       </c>
       <c r="E10">
-        <v>9.011427799095376</v>
+        <v>13.46589525205472</v>
       </c>
       <c r="F10">
-        <v>25.74909658464212</v>
+        <v>31.89108226027635</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.608957884709874</v>
+        <v>9.835892442084591</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -776,13 +776,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.0297055847617</v>
+        <v>17.06554746032982</v>
       </c>
       <c r="N10">
-        <v>11.19611238516901</v>
+        <v>17.58479582089568</v>
       </c>
       <c r="O10">
-        <v>17.74955437892302</v>
+        <v>23.75476397642571</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.3739651310514</v>
+        <v>15.76878892440213</v>
       </c>
       <c r="C11">
-        <v>15.80435921607355</v>
+        <v>8.822712928729572</v>
       </c>
       <c r="D11">
-        <v>6.833145911792913</v>
+        <v>9.287207774848188</v>
       </c>
       <c r="E11">
-        <v>9.125456327846711</v>
+        <v>13.46391317374796</v>
       </c>
       <c r="F11">
-        <v>26.29199404127999</v>
+        <v>31.91975981593065</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.597976801494776</v>
+        <v>9.821260273851715</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.63034035409355</v>
+        <v>17.18566852561821</v>
       </c>
       <c r="N11">
-        <v>11.06428831039067</v>
+        <v>17.54667092570324</v>
       </c>
       <c r="O11">
-        <v>18.04557221023197</v>
+        <v>23.74851803714995</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.68543337976073</v>
+        <v>15.89606419454962</v>
       </c>
       <c r="C12">
-        <v>15.99514494509874</v>
+        <v>8.927365604990435</v>
       </c>
       <c r="D12">
-        <v>6.882033802391128</v>
+        <v>9.292733219767321</v>
       </c>
       <c r="E12">
-        <v>9.169189516123549</v>
+        <v>13.46347804219943</v>
       </c>
       <c r="F12">
-        <v>26.49943184867956</v>
+        <v>31.93189976828977</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.594293447357391</v>
+        <v>9.815886801823517</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.8532241575697</v>
+        <v>17.23129868414038</v>
       </c>
       <c r="N12">
-        <v>11.01484391587002</v>
+        <v>17.53250530245582</v>
       </c>
       <c r="O12">
-        <v>18.15998147646841</v>
+        <v>23.74708198612878</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.61864356856116</v>
+        <v>15.86873030120427</v>
       </c>
       <c r="C13">
-        <v>15.95423111260546</v>
+        <v>8.904937991620363</v>
       </c>
       <c r="D13">
-        <v>6.871514567631083</v>
+        <v>9.291535840641419</v>
       </c>
       <c r="E13">
-        <v>9.159746352770291</v>
+        <v>13.46355773998241</v>
       </c>
       <c r="F13">
-        <v>26.45467522454955</v>
+        <v>31.92922835016694</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.595065231979759</v>
+        <v>9.817036633058436</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.80542411666294</v>
+        <v>17.22146560087797</v>
       </c>
       <c r="N13">
-        <v>11.02547152130198</v>
+        <v>17.53554406464113</v>
       </c>
       <c r="O13">
-        <v>18.13523842545788</v>
+        <v>23.74734992456337</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.39972082254548</v>
+        <v>15.77929454209845</v>
       </c>
       <c r="C14">
-        <v>15.82013431242749</v>
+        <v>8.831372892446671</v>
       </c>
       <c r="D14">
-        <v>6.837172249973805</v>
+        <v>9.287659028823937</v>
       </c>
       <c r="E14">
-        <v>9.129043256812182</v>
+        <v>13.46387105822365</v>
       </c>
       <c r="F14">
-        <v>26.30902337979257</v>
+        <v>31.92073294588634</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.597664119019842</v>
+        <v>9.820814841175928</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.64876824371682</v>
+        <v>17.18941987769655</v>
       </c>
       <c r="N14">
-        <v>11.06021097170248</v>
+        <v>17.54550007635286</v>
       </c>
       <c r="O14">
-        <v>18.05493833569527</v>
+        <v>23.74838126465517</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.264772340142</v>
+        <v>15.72428845358634</v>
       </c>
       <c r="C15">
-        <v>15.73748228704893</v>
+        <v>8.785986380176462</v>
       </c>
       <c r="D15">
-        <v>6.816108871947681</v>
+        <v>9.285306014120403</v>
       </c>
       <c r="E15">
-        <v>9.110308449899511</v>
+        <v>13.46410402904832</v>
       </c>
       <c r="F15">
-        <v>26.22004645726285</v>
+        <v>31.9156958579211</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.599318546888159</v>
+        <v>9.823150898063702</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.55221952523885</v>
+        <v>17.16980854460867</v>
       </c>
       <c r="N15">
-        <v>11.08155172604248</v>
+        <v>17.55163374443551</v>
       </c>
       <c r="O15">
-        <v>18.00605364734655</v>
+        <v>23.74913402581262</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.47831315243885</v>
+        <v>15.40571287667431</v>
       </c>
       <c r="C16">
-        <v>15.25593564321217</v>
+        <v>8.520896501402243</v>
       </c>
       <c r="D16">
-        <v>6.695002570765786</v>
+        <v>9.272155649351999</v>
       </c>
       <c r="E16">
-        <v>9.004053715118529</v>
+        <v>13.46606897145912</v>
       </c>
       <c r="F16">
-        <v>25.71388106647951</v>
+        <v>31.88938755180819</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.609740744341234</v>
+        <v>9.836872128018671</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.98981075217428</v>
+        <v>17.05771912746834</v>
       </c>
       <c r="N16">
-        <v>11.20479374244733</v>
+        <v>17.58732540726868</v>
       </c>
       <c r="O16">
-        <v>17.73053247441236</v>
+        <v>23.75530211896327</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.98406501927085</v>
+        <v>15.20736817297324</v>
       </c>
       <c r="C17">
-        <v>14.95344616390822</v>
+        <v>8.353807336579004</v>
       </c>
       <c r="D17">
-        <v>6.620377911235764</v>
+        <v>9.264388392213791</v>
       </c>
       <c r="E17">
-        <v>8.939865970132054</v>
+        <v>13.46783710108334</v>
       </c>
       <c r="F17">
-        <v>25.40676042591904</v>
+        <v>31.87553382904624</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.616956144950169</v>
+        <v>9.845588084620179</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.63659791243933</v>
+        <v>16.98924703479068</v>
       </c>
       <c r="N17">
-        <v>11.28124301313079</v>
+        <v>17.60970554788352</v>
       </c>
       <c r="O17">
-        <v>17.5656258704588</v>
+        <v>23.76073961165904</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.69542974954327</v>
+        <v>15.09225279293164</v>
       </c>
       <c r="C18">
-        <v>14.77685222761541</v>
+        <v>8.256059224662994</v>
       </c>
       <c r="D18">
-        <v>6.577346012532375</v>
+        <v>9.260031999635391</v>
       </c>
       <c r="E18">
-        <v>8.903316351743047</v>
+        <v>13.46906111426412</v>
       </c>
       <c r="F18">
-        <v>25.23139040215817</v>
+        <v>31.86840678231346</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.621401149627378</v>
+        <v>9.850711016601755</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.43040926611688</v>
+        <v>16.94998167635885</v>
       </c>
       <c r="N18">
-        <v>11.32552488769442</v>
+        <v>17.62275634831692</v>
       </c>
       <c r="O18">
-        <v>17.4722873567014</v>
+        <v>23.76447428955935</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.59695196089265</v>
+        <v>15.05310291956915</v>
       </c>
       <c r="C19">
-        <v>14.71661145282266</v>
+        <v>8.222681063392177</v>
       </c>
       <c r="D19">
-        <v>6.562758432566623</v>
+        <v>9.258576165841642</v>
       </c>
       <c r="E19">
-        <v>8.891005065394552</v>
+        <v>13.469511123422</v>
       </c>
       <c r="F19">
-        <v>25.17223552709446</v>
+        <v>31.86613828030121</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.622956143036943</v>
+        <v>9.85246440904166</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.3600751786368</v>
+        <v>16.93670840486606</v>
       </c>
       <c r="N19">
-        <v>11.34057127933753</v>
+        <v>17.62720578287468</v>
       </c>
       <c r="O19">
-        <v>17.4409439588186</v>
+        <v>23.76584301547683</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.03712887999452</v>
+        <v>15.22859003542071</v>
       </c>
       <c r="C20">
-        <v>14.9859166065141</v>
+        <v>8.371764250167772</v>
       </c>
       <c r="D20">
-        <v>6.628333460917507</v>
+        <v>9.265203747641506</v>
       </c>
       <c r="E20">
-        <v>8.94666070387531</v>
+        <v>13.46762745883912</v>
       </c>
       <c r="F20">
-        <v>25.43932240792345</v>
+        <v>31.87692154217524</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.61615737530207</v>
+        <v>9.844648899701797</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.67451119173353</v>
+        <v>16.9965240432578</v>
       </c>
       <c r="N20">
-        <v>11.27307274886889</v>
+        <v>17.6073046933951</v>
       </c>
       <c r="O20">
-        <v>17.58302399818154</v>
+        <v>23.76009792820835</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.46420113327951</v>
+        <v>15.80561087495616</v>
       </c>
       <c r="C21">
-        <v>15.85962881941288</v>
+        <v>8.853048622011949</v>
       </c>
       <c r="D21">
-        <v>6.847265253628219</v>
+        <v>9.288793236726073</v>
       </c>
       <c r="E21">
-        <v>9.138046570306471</v>
+        <v>13.46377047492545</v>
       </c>
       <c r="F21">
-        <v>26.35175518336343</v>
+        <v>31.92319354395919</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.596887689205214</v>
+        <v>9.819700548144985</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.6949052299038</v>
+        <v>17.19882887701678</v>
       </c>
       <c r="N21">
-        <v>11.04999426283556</v>
+        <v>17.54256839461802</v>
       </c>
       <c r="O21">
-        <v>18.07846159244221</v>
+        <v>23.74805310963621</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.35866852703751</v>
+        <v>16.17279174590522</v>
       </c>
       <c r="C22">
-        <v>16.40762418450579</v>
+        <v>9.153009879229762</v>
       </c>
       <c r="D22">
-        <v>6.989139286935004</v>
+        <v>9.305181416562613</v>
       </c>
       <c r="E22">
-        <v>9.266347740731035</v>
+        <v>13.46308788232171</v>
       </c>
       <c r="F22">
-        <v>26.95885978148118</v>
+        <v>31.96089505694698</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.587073440809514</v>
+        <v>9.804371062511166</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.33522230437284</v>
+        <v>17.33186400314047</v>
       </c>
       <c r="N22">
-        <v>10.90696700780255</v>
+        <v>17.50184127056324</v>
       </c>
       <c r="O22">
-        <v>18.41574702570703</v>
+        <v>23.7455971570205</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.88474108240134</v>
+        <v>15.97776276848828</v>
       </c>
       <c r="C23">
-        <v>16.11724409262291</v>
+        <v>8.994247231359996</v>
       </c>
       <c r="D23">
-        <v>6.913539640452571</v>
+        <v>9.296346804696052</v>
       </c>
       <c r="E23">
-        <v>9.197579653451225</v>
+        <v>13.46328428979962</v>
       </c>
       <c r="F23">
-        <v>26.63387665040694</v>
+        <v>31.94009223164537</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.592049459544439</v>
+        <v>9.812463495210787</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.99588342217706</v>
+        <v>17.26079715953222</v>
       </c>
       <c r="N23">
-        <v>10.98304951718798</v>
+        <v>17.52343366830405</v>
       </c>
       <c r="O23">
-        <v>18.23449584807518</v>
+        <v>23.74641205732102</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.01315268613814</v>
+        <v>15.21899900040454</v>
       </c>
       <c r="C24">
-        <v>14.97124509637137</v>
+        <v>8.3636511825735</v>
       </c>
       <c r="D24">
-        <v>6.624737156596177</v>
+        <v>9.26483478540492</v>
       </c>
       <c r="E24">
-        <v>8.943587705137631</v>
+        <v>13.46772159172906</v>
       </c>
       <c r="F24">
-        <v>25.42459739816278</v>
+        <v>31.87629154752479</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.616517576342289</v>
+        <v>9.845073156273454</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.65738032659182</v>
+        <v>16.99323379312553</v>
       </c>
       <c r="N24">
-        <v>11.27676549693287</v>
+        <v>17.6083895459739</v>
       </c>
       <c r="O24">
-        <v>17.5751537309519</v>
+        <v>23.76038613765745</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.82744882466734</v>
+        <v>14.36163465505799</v>
       </c>
       <c r="C25">
-        <v>13.63524231503539</v>
+        <v>7.620626358039075</v>
       </c>
       <c r="D25">
-        <v>6.309198222173588</v>
+        <v>9.235102014581646</v>
       </c>
       <c r="E25">
-        <v>8.683786147682035</v>
+        <v>13.48042503715313</v>
       </c>
       <c r="F25">
-        <v>24.16950120544506</v>
+        <v>31.83963885888553</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.65410555717811</v>
+        <v>9.884444702569306</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.13107489460302</v>
+        <v>16.70927034934629</v>
       </c>
       <c r="N25">
-        <v>11.60546259475898</v>
+        <v>17.70685048885852</v>
       </c>
       <c r="O25">
-        <v>16.92168312581969</v>
+        <v>23.79866109548842</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_65/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_65/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.7015983672966</v>
+        <v>19.0713044733097</v>
       </c>
       <c r="C2">
-        <v>7.027492222474772</v>
+        <v>12.56470578149045</v>
       </c>
       <c r="D2">
-        <v>9.216955118608999</v>
+        <v>6.074862883251099</v>
       </c>
       <c r="E2">
-        <v>13.49660647338201</v>
+        <v>8.50501555427385</v>
       </c>
       <c r="F2">
-        <v>31.84037344995379</v>
+        <v>23.29134794235456</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.917056146039144</v>
+        <v>5.690651544835741</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.5053817125972</v>
+        <v>14.1157474341166</v>
       </c>
       <c r="N2">
-        <v>17.78526280807522</v>
+        <v>11.85781558461069</v>
       </c>
       <c r="O2">
-        <v>23.84670232787552</v>
+        <v>16.48965464484083</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.2392116101996</v>
+        <v>17.7879884466573</v>
       </c>
       <c r="C3">
-        <v>6.614749596745622</v>
+        <v>11.78477353729791</v>
       </c>
       <c r="D3">
-        <v>9.207031294696167</v>
+        <v>5.915655489924167</v>
       </c>
       <c r="E3">
-        <v>13.51183840921222</v>
+        <v>8.391822671343659</v>
       </c>
       <c r="F3">
-        <v>31.85815364066598</v>
+        <v>22.7268153619116</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.941423444315424</v>
+        <v>5.720601188341767</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.3710400245124</v>
+        <v>13.39427341785905</v>
       </c>
       <c r="N3">
-        <v>17.84211868669211</v>
+        <v>12.03537823669415</v>
       </c>
       <c r="O3">
-        <v>23.89158391864082</v>
+        <v>16.22701727119518</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.9489857401828</v>
+        <v>16.9535747613554</v>
       </c>
       <c r="C4">
-        <v>6.347681334806301</v>
+        <v>11.2790592098747</v>
       </c>
       <c r="D4">
-        <v>9.202121101417852</v>
+        <v>5.818024135437431</v>
       </c>
       <c r="E4">
-        <v>13.52329630282917</v>
+        <v>8.326288391738384</v>
       </c>
       <c r="F4">
-        <v>31.87758136147763</v>
+        <v>22.39590424749461</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.957505084942829</v>
+        <v>5.741437766579061</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -530,13 +530,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.29064116373498</v>
+        <v>12.93597334094531</v>
       </c>
       <c r="N4">
-        <v>17.87886909178367</v>
+        <v>12.14766618476467</v>
       </c>
       <c r="O4">
-        <v>23.92519417823694</v>
+        <v>16.08037576553475</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.82931357957181</v>
+        <v>16.60179290715076</v>
       </c>
       <c r="C5">
-        <v>6.235484225123206</v>
+        <v>11.06624427535547</v>
       </c>
       <c r="D5">
-        <v>9.20041941785721</v>
+        <v>5.778320463030308</v>
       </c>
       <c r="E5">
-        <v>13.52849510792066</v>
+        <v>8.300584775875585</v>
       </c>
       <c r="F5">
-        <v>31.88763557887668</v>
+        <v>22.26509383606104</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.964340431528107</v>
+        <v>5.750528856831759</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.25843208630279</v>
+        <v>12.74557514457388</v>
       </c>
       <c r="N5">
-        <v>17.89430915444411</v>
+        <v>12.19425082828049</v>
       </c>
       <c r="O5">
-        <v>23.94040852223315</v>
+        <v>16.02424589945225</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.80936313616823</v>
+        <v>16.54266800350293</v>
       </c>
       <c r="C6">
-        <v>6.21665299767611</v>
+        <v>11.03050060364616</v>
       </c>
       <c r="D6">
-        <v>9.200154978009124</v>
+        <v>5.771734176895242</v>
       </c>
       <c r="E6">
-        <v>13.52939035696503</v>
+        <v>8.296377329666656</v>
       </c>
       <c r="F6">
-        <v>31.88943405396411</v>
+        <v>22.24361908155058</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.965492473678365</v>
+        <v>5.752074228366685</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -612,13 +612,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.2531180949978</v>
+        <v>12.71374699004586</v>
       </c>
       <c r="N6">
-        <v>17.89690102127192</v>
+        <v>12.20203626162045</v>
       </c>
       <c r="O6">
-        <v>23.9430263989741</v>
+        <v>16.01514302235567</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.94737722169324</v>
+        <v>16.94887818220957</v>
       </c>
       <c r="C7">
-        <v>6.346181730231794</v>
+        <v>11.27621634263526</v>
       </c>
       <c r="D7">
-        <v>9.202096937991827</v>
+        <v>5.817488277230469</v>
       </c>
       <c r="E7">
-        <v>13.52336427113694</v>
+        <v>8.325937681599157</v>
       </c>
       <c r="F7">
-        <v>31.87770830710362</v>
+        <v>22.39412363461081</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.957596126811834</v>
+        <v>5.741557962572267</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -653,13 +653,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.29020449942117</v>
+        <v>12.93341998083547</v>
       </c>
       <c r="N7">
-        <v>17.87907544176335</v>
+        <v>12.14829108757098</v>
       </c>
       <c r="O7">
-        <v>23.9253932241733</v>
+        <v>16.07960416310938</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.54358551243872</v>
+        <v>18.63841515657002</v>
       </c>
       <c r="C8">
-        <v>6.888045114935079</v>
+        <v>12.30135943506206</v>
       </c>
       <c r="D8">
-        <v>9.213288936087732</v>
+        <v>6.01997265648659</v>
       </c>
       <c r="E8">
-        <v>13.50142160930455</v>
+        <v>8.465166825821209</v>
       </c>
       <c r="F8">
-        <v>31.84473635418416</v>
+        <v>23.0934912598161</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.925225716085166</v>
+        <v>5.700460740697953</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -694,13 +694,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.45864523580779</v>
+        <v>13.87027732896678</v>
       </c>
       <c r="N8">
-        <v>17.80448536051644</v>
+        <v>11.91836507020833</v>
       </c>
       <c r="O8">
-        <v>23.86091890497133</v>
+        <v>16.39603788525486</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.65525163213465</v>
+        <v>21.586299385136</v>
       </c>
       <c r="C9">
-        <v>7.879333994089476</v>
+        <v>14.09871606102518</v>
       </c>
       <c r="D9">
-        <v>9.244541137733558</v>
+        <v>6.41590473957267</v>
       </c>
       <c r="E9">
-        <v>13.47508629247726</v>
+        <v>8.769378075881747</v>
       </c>
       <c r="F9">
-        <v>31.84768058907767</v>
+        <v>24.58539498999009</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.870620505705677</v>
+        <v>5.640017306964038</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -735,13 +735,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.80419742723289</v>
+        <v>15.63867829376417</v>
       </c>
       <c r="N9">
-        <v>17.67276802438999</v>
+        <v>11.49314534332911</v>
       </c>
       <c r="O9">
-        <v>23.78267576154558</v>
+        <v>17.13413010495685</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.42820276905078</v>
+        <v>23.53412191159585</v>
       </c>
       <c r="C10">
-        <v>8.539740062976282</v>
+        <v>15.29009880247955</v>
       </c>
       <c r="D10">
-        <v>9.273056944259714</v>
+        <v>6.703502043784934</v>
       </c>
       <c r="E10">
-        <v>13.46589525205472</v>
+        <v>9.011427799095451</v>
       </c>
       <c r="F10">
-        <v>31.89108226027635</v>
+        <v>25.74909658464207</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.835892442084591</v>
+        <v>5.608957884709924</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -776,13 +776,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.06554746032982</v>
+        <v>17.02970558476171</v>
       </c>
       <c r="N10">
-        <v>17.58479582089568</v>
+        <v>11.19611238516894</v>
       </c>
       <c r="O10">
-        <v>23.75476397642571</v>
+        <v>17.74955437892294</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.76878892440213</v>
+        <v>24.37396513105138</v>
       </c>
       <c r="C11">
-        <v>8.822712928729572</v>
+        <v>15.8043592160736</v>
       </c>
       <c r="D11">
-        <v>9.287207774848188</v>
+        <v>6.833145911792883</v>
       </c>
       <c r="E11">
-        <v>13.46391317374796</v>
+        <v>9.125456327846813</v>
       </c>
       <c r="F11">
-        <v>31.91975981593065</v>
+        <v>26.29199404128003</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.821260273851715</v>
+        <v>5.597976801494851</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.18566852561821</v>
+        <v>17.63034035409351</v>
       </c>
       <c r="N11">
-        <v>17.54667092570324</v>
+        <v>11.06428831039067</v>
       </c>
       <c r="O11">
-        <v>23.74851803714995</v>
+        <v>18.04557221023203</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.89606419454962</v>
+        <v>24.68543337976067</v>
       </c>
       <c r="C12">
-        <v>8.927365604990435</v>
+        <v>15.99514494509875</v>
       </c>
       <c r="D12">
-        <v>9.292733219767321</v>
+        <v>6.882033802391121</v>
       </c>
       <c r="E12">
-        <v>13.46347804219943</v>
+        <v>9.169189516123549</v>
       </c>
       <c r="F12">
-        <v>31.93189976828977</v>
+        <v>26.49943184867955</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.815886801823517</v>
+        <v>5.594293447357395</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.23129868414038</v>
+        <v>17.85322415756967</v>
       </c>
       <c r="N12">
-        <v>17.53250530245582</v>
+        <v>11.01484391586999</v>
       </c>
       <c r="O12">
-        <v>23.74708198612878</v>
+        <v>18.15998147646843</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.86873030120427</v>
+        <v>24.61864356856119</v>
       </c>
       <c r="C13">
-        <v>8.904937991620363</v>
+        <v>15.9542311126055</v>
       </c>
       <c r="D13">
-        <v>9.291535840641419</v>
+        <v>6.871514567631016</v>
       </c>
       <c r="E13">
-        <v>13.46355773998241</v>
+        <v>9.159746352770249</v>
       </c>
       <c r="F13">
-        <v>31.92922835016694</v>
+        <v>26.45467522454954</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.817036633058436</v>
+        <v>5.595065231979758</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.22146560087797</v>
+        <v>17.80542411666296</v>
       </c>
       <c r="N13">
-        <v>17.53554406464113</v>
+        <v>11.02547152130194</v>
       </c>
       <c r="O13">
-        <v>23.74734992456337</v>
+        <v>18.13523842545788</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.77929454209845</v>
+        <v>24.39972082254551</v>
       </c>
       <c r="C14">
-        <v>8.831372892446671</v>
+        <v>15.82013431242742</v>
       </c>
       <c r="D14">
-        <v>9.287659028823937</v>
+        <v>6.837172249973767</v>
       </c>
       <c r="E14">
-        <v>13.46387105822365</v>
+        <v>9.129043256812128</v>
       </c>
       <c r="F14">
-        <v>31.92073294588634</v>
+        <v>26.30902337979258</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.820814841175928</v>
+        <v>5.597664119019838</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.18941987769655</v>
+        <v>17.64876824371681</v>
       </c>
       <c r="N14">
-        <v>17.54550007635286</v>
+        <v>11.06021097170248</v>
       </c>
       <c r="O14">
-        <v>23.74838126465517</v>
+        <v>18.05493833569529</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.72428845358634</v>
+        <v>24.26477234014189</v>
       </c>
       <c r="C15">
-        <v>8.785986380176462</v>
+        <v>15.73748228704893</v>
       </c>
       <c r="D15">
-        <v>9.285306014120403</v>
+        <v>6.816108871947573</v>
       </c>
       <c r="E15">
-        <v>13.46410402904832</v>
+        <v>9.110308449899501</v>
       </c>
       <c r="F15">
-        <v>31.9156958579211</v>
+        <v>26.22004645726285</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.823150898063702</v>
+        <v>5.599318546888183</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.16980854460867</v>
+        <v>17.55221952523882</v>
       </c>
       <c r="N15">
-        <v>17.55163374443551</v>
+        <v>11.08155172604252</v>
       </c>
       <c r="O15">
-        <v>23.74913402581262</v>
+        <v>18.00605364734658</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.40571287667431</v>
+        <v>23.47831315243889</v>
       </c>
       <c r="C16">
-        <v>8.520896501402243</v>
+        <v>15.25593564321224</v>
       </c>
       <c r="D16">
-        <v>9.272155649351999</v>
+        <v>6.695002570765786</v>
       </c>
       <c r="E16">
-        <v>13.46606897145912</v>
+        <v>9.004053715118538</v>
       </c>
       <c r="F16">
-        <v>31.88938755180819</v>
+        <v>25.71388106647938</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.836872128018671</v>
+        <v>5.609740744341162</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.05771912746834</v>
+        <v>16.98981075217433</v>
       </c>
       <c r="N16">
-        <v>17.58732540726868</v>
+        <v>11.20479374244723</v>
       </c>
       <c r="O16">
-        <v>23.75530211896327</v>
+        <v>17.73053247441226</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.20736817297324</v>
+        <v>22.98406501927078</v>
       </c>
       <c r="C17">
-        <v>8.353807336579004</v>
+        <v>14.95344616390823</v>
       </c>
       <c r="D17">
-        <v>9.264388392213791</v>
+        <v>6.62037791123599</v>
       </c>
       <c r="E17">
-        <v>13.46783710108334</v>
+        <v>8.939865970132137</v>
       </c>
       <c r="F17">
-        <v>31.87553382904624</v>
+        <v>25.40676042591909</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.845588084620179</v>
+        <v>5.616956144950166</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.98924703479068</v>
+        <v>16.63659791243929</v>
       </c>
       <c r="N17">
-        <v>17.60970554788352</v>
+        <v>11.28124301313079</v>
       </c>
       <c r="O17">
-        <v>23.76073961165904</v>
+        <v>17.5656258704588</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.09225279293164</v>
+        <v>22.6954297495432</v>
       </c>
       <c r="C18">
-        <v>8.256059224662994</v>
+        <v>14.77685222761554</v>
       </c>
       <c r="D18">
-        <v>9.260031999635391</v>
+        <v>6.577346012532501</v>
       </c>
       <c r="E18">
-        <v>13.46906111426412</v>
+        <v>8.903316351743053</v>
       </c>
       <c r="F18">
-        <v>31.86840678231346</v>
+        <v>25.23139040215825</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.850711016601755</v>
+        <v>5.621401149627299</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.94998167635885</v>
+        <v>16.43040926611686</v>
       </c>
       <c r="N18">
-        <v>17.62275634831692</v>
+        <v>11.32552488769445</v>
       </c>
       <c r="O18">
-        <v>23.76447428955935</v>
+        <v>17.47228735670142</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.05310291956915</v>
+        <v>22.59695196089268</v>
       </c>
       <c r="C19">
-        <v>8.222681063392177</v>
+        <v>14.71661145282269</v>
       </c>
       <c r="D19">
-        <v>9.258576165841642</v>
+        <v>6.562758432566569</v>
       </c>
       <c r="E19">
-        <v>13.469511123422</v>
+        <v>8.891005065394507</v>
       </c>
       <c r="F19">
-        <v>31.86613828030121</v>
+        <v>25.17223552709443</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.85246440904166</v>
+        <v>5.622956143036909</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.93670840486606</v>
+        <v>16.36007517863682</v>
       </c>
       <c r="N19">
-        <v>17.62720578287468</v>
+        <v>11.34057127933753</v>
       </c>
       <c r="O19">
-        <v>23.76584301547683</v>
+        <v>17.44094395881856</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.22859003542071</v>
+        <v>23.03712887999454</v>
       </c>
       <c r="C20">
-        <v>8.371764250167772</v>
+        <v>14.98591660651406</v>
       </c>
       <c r="D20">
-        <v>9.265203747641506</v>
+        <v>6.628333460917453</v>
       </c>
       <c r="E20">
-        <v>13.46762745883912</v>
+        <v>8.946660703875306</v>
       </c>
       <c r="F20">
-        <v>31.87692154217524</v>
+        <v>25.43932240792336</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.844648899701797</v>
+        <v>5.616157375302086</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.9965240432578</v>
+        <v>16.67451119173353</v>
       </c>
       <c r="N20">
-        <v>17.6073046933951</v>
+        <v>11.27307274886883</v>
       </c>
       <c r="O20">
-        <v>23.76009792820835</v>
+        <v>17.58302399818149</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.80561087495616</v>
+        <v>24.46420113327948</v>
       </c>
       <c r="C21">
-        <v>8.853048622011949</v>
+        <v>15.85962881941287</v>
       </c>
       <c r="D21">
-        <v>9.288793236726073</v>
+        <v>6.847265253628072</v>
       </c>
       <c r="E21">
-        <v>13.46377047492545</v>
+        <v>9.138046570306406</v>
       </c>
       <c r="F21">
-        <v>31.92319354395919</v>
+        <v>26.35175518336343</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.819700548144985</v>
+        <v>5.596887689205268</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.19882887701678</v>
+        <v>17.69490522990381</v>
       </c>
       <c r="N21">
-        <v>17.54256839461802</v>
+        <v>11.04999426283566</v>
       </c>
       <c r="O21">
-        <v>23.74805310963621</v>
+        <v>18.07846159244227</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.17279174590522</v>
+        <v>25.35866852703746</v>
       </c>
       <c r="C22">
-        <v>9.153009879229762</v>
+        <v>16.40762418450586</v>
       </c>
       <c r="D22">
-        <v>9.305181416562613</v>
+        <v>6.989139286934938</v>
       </c>
       <c r="E22">
-        <v>13.46308788232171</v>
+        <v>9.266347740731035</v>
       </c>
       <c r="F22">
-        <v>31.96089505694698</v>
+        <v>26.95885978148118</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.804371062511166</v>
+        <v>5.587073440809513</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.33186400314047</v>
+        <v>18.33522230437282</v>
       </c>
       <c r="N22">
-        <v>17.50184127056324</v>
+        <v>10.90696700780259</v>
       </c>
       <c r="O22">
-        <v>23.7455971570205</v>
+        <v>18.41574702570703</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.97776276848828</v>
+        <v>24.88474108240132</v>
       </c>
       <c r="C23">
-        <v>8.994247231359996</v>
+        <v>16.11724409262288</v>
       </c>
       <c r="D23">
-        <v>9.296346804696052</v>
+        <v>6.913539640452512</v>
       </c>
       <c r="E23">
-        <v>13.46328428979962</v>
+        <v>9.197579653451262</v>
       </c>
       <c r="F23">
-        <v>31.94009223164537</v>
+        <v>26.633876650407</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.812463495210787</v>
+        <v>5.592049459544485</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.26079715953222</v>
+        <v>17.99588342217702</v>
       </c>
       <c r="N23">
-        <v>17.52343366830405</v>
+        <v>10.98304951718808</v>
       </c>
       <c r="O23">
-        <v>23.74641205732102</v>
+        <v>18.23449584807527</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.21899900040454</v>
+        <v>23.01315268613816</v>
       </c>
       <c r="C24">
-        <v>8.3636511825735</v>
+        <v>14.97124509637134</v>
       </c>
       <c r="D24">
-        <v>9.26483478540492</v>
+        <v>6.624737156596032</v>
       </c>
       <c r="E24">
-        <v>13.46772159172906</v>
+        <v>8.943587705137551</v>
       </c>
       <c r="F24">
-        <v>31.87629154752479</v>
+        <v>25.42459739816271</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.845073156273454</v>
+        <v>5.616517576342263</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.99323379312553</v>
+        <v>16.65738032659184</v>
       </c>
       <c r="N24">
-        <v>17.6083895459739</v>
+        <v>11.27676549693284</v>
       </c>
       <c r="O24">
-        <v>23.76038613765745</v>
+        <v>17.57515373095186</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.36163465505799</v>
+        <v>20.82744882466733</v>
       </c>
       <c r="C25">
-        <v>7.620626358039075</v>
+        <v>13.6352423150354</v>
       </c>
       <c r="D25">
-        <v>9.235102014581646</v>
+        <v>6.309198222173595</v>
       </c>
       <c r="E25">
-        <v>13.48042503715313</v>
+        <v>8.683786147682111</v>
       </c>
       <c r="F25">
-        <v>31.83963885888553</v>
+        <v>24.16950120544502</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.884444702569306</v>
+        <v>5.654105557178136</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.70927034934629</v>
+        <v>15.13107489460302</v>
       </c>
       <c r="N25">
-        <v>17.70685048885852</v>
+        <v>11.60546259475895</v>
       </c>
       <c r="O25">
-        <v>23.79866109548842</v>
+        <v>16.92168312581965</v>
       </c>
     </row>
   </sheetData>
